--- a/medicine/Enfance/Guillaume_Guéraud/Guillaume_Guéraud.xlsx
+++ b/medicine/Enfance/Guillaume_Guéraud/Guillaume_Guéraud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guillaume_Gu%C3%A9raud</t>
+          <t>Guillaume_Guéraud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Guillaume Guéraud, né le 30 janvier 1972 à Bordeaux, est un écrivain français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guillaume_Gu%C3%A9raud</t>
+          <t>Guillaume_Guéraud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Initié très jeune au cinéma grâce à sa mère qui l'y emmenait très régulièrement, Guillaume Guéraud a voulu devenir critique de cinéma. Il a d'abord suivi des études de journalisme et a travaillé dans divers quotidiens régionaux. Durant une période de chômage, à 24 ans, il a choisi de devenir écrivain.
 En 2005, il publie le roman noir jeunesse Je mourrai pas gibier, qui remporte le Prix Sorcières 2007, catégorie Roman adolescent. L'ouvrage est adapté en 2009 par Alfred en bande dessinée, sous le même titre. Par la suite, ils travaillent ensemble pour deux ouvrages, que Guillaume Guéraud scénarise, et Alfred illustre : Bob le raté en 2013, et  La Rage du dragon en 2015.
-Son roman policier Affreux, sales et gentils remporte le prix Fnac des jeunes lecteurs en 2006[1]
-Ses personnages principaux sont souvent des anti-héros vivant dans un milieu social défavorisé. Très inspiré par le cinéma, son type d'écriture est très visuel[2].
+Son roman policier Affreux, sales et gentils remporte le prix Fnac des jeunes lecteurs en 2006
+Ses personnages principaux sont souvent des anti-héros vivant dans un milieu social défavorisé. Très inspiré par le cinéma, son type d'écriture est très visuel.
 Il réalise aussi de petites leçons d'écriture « impertinentes » qu'il appelle des autofilms, réalisés avec son téléphone portable. Il les publie sur le site de partage de vidéo YouTube.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guillaume_Gu%C3%A9raud</t>
+          <t>Guillaume_Guéraud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Sorcières 2007, catégorie Roman adolescent, pour Je mourrai pas gibier
- Prix de la Semaine Paul Hurtmans du livre de jeunesse 2010[3] pour Le Contour de toutes les peurs
+ Prix de la Semaine Paul Hurtmans du livre de jeunesse 2010 pour Le Contour de toutes les peurs
 Prix #Lirejeune47 2018 pour Ma grand-mère est une terreur
- Prix Bernard Versele 2019[4] pour Ma grand-mère est une terreur
- Prix Bernard Versele 2021[5] pour La face cachée du prince charmant, avec Henri Meunier.</t>
+ Prix Bernard Versele 2019 pour Ma grand-mère est une terreur
+ Prix Bernard Versele 2021 pour La face cachée du prince charmant, avec Henri Meunier.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Guillaume_Gu%C3%A9raud</t>
+          <t>Guillaume_Guéraud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,8 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Années 1990 et 2000
-Cité Nique-le-ciel, roman, Éditions du Rouergue, Coll. doAdo, 1998. illustration: Jochen Gerner.
+          <t>Années 1990 et 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cité Nique-le-ciel, roman, Éditions du Rouergue, Coll. doAdo, 1998. illustration: Jochen Gerner.
 Chassé-croisé, roman, Éditions du Rouergue, Coll. doAdo, 1999.illustration: Jochen Gerner.
 Les Chiens écrasés, roman, Éditions du Rouergue, Coll. doAdo, 1999.illustration: Jochen Gerner. ; et rééd.
 Coup de sabre, roman, Éditions du Rouergue, Coll. doAdo, 1999.illustration: Jochen Gerner.
@@ -605,12 +626,46 @@
 Ça va mal finir, roman, Éditions Thierry Magnier, Coll. Petite Poche, 2007
 La Brigade de l'Œil, roman, Éditions du Rouergue, Coll. doAdo Noir, 2007
 Raspoutine, album, ill. Marc Daniau, Éditions du Rouergue, Coll. Varia, 2008
-Le Contour de toutes les peurs, roman, Éditions du Rouergue, Coll. doAdo Noir, 2008 Prix de la Semaine Paul Hurtmans du livre de jeunesse 2010[3] 
+Le Contour de toutes les peurs, roman, Éditions du Rouergue, Coll. doAdo Noir, 2008 Prix de la Semaine Paul Hurtmans du livre de jeunesse 2010 
 La Grande Bagarre, roman, Milan Jeunesse, coll. Milan poche cadet, 2008
 Oméga et l'ourse, album, ill. Beatrice Alemagna, Éditions du Panama, 2008
-Déroute Sauvage, roman Éditions du Rouergue coll. DoAdo Noir 2009
-Années 2010
-Sans la télé, autobiographie Éditions du Rouergue coll. DoAdo Noir 2010
+Déroute Sauvage, roman Éditions du Rouergue coll. DoAdo Noir 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guillaume_Guéraud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Gu%C3%A9raud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sans la télé, autobiographie Éditions du Rouergue coll. DoAdo Noir 2010
 Anka, roman Éditions du Rouergue coll. DoAdo Noir 2011
 Je sauve le monde dès que je m'ennuie, illustrations de Martín Romero, Rouergue, 2012
 Safari dans le lavabo, illustrations Hélène Georges, Rouergue, 2012
@@ -630,9 +685,43 @@
 Les héroïnes de cinéma sont plus courageuses que moi, éditions du Rouergue, février 2018  (ISBN 9782812615146)
  La face cachée du prince charmant, Guillaume Guéraud et Henri Meunier, Rouergue, 2019
  Vorace, éditions du Rouergue, août 2019   (ISBN 978-2-8126-1841-3)
-Un jour, avec Sébastien Mourrain, La Martinière jeunesse, 2019
-Années 2020
-Ma fabuleuse carte au trésor, avec Renaud Perrin, Seuil jeunesse, 2020
+Un jour, avec Sébastien Mourrain, La Martinière jeunesse, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Guillaume_Guéraud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Gu%C3%A9raud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ma fabuleuse carte au trésor, avec Renaud Perrin, Seuil jeunesse, 2020
 Les trois enterrements de mon chien, Guillaume Guéraud, 2020
 La princesse rebelle se dévoile, Guillaume Guéraud et Henri Meunier, Rouergue, 2021
 Ma cabane, illustrations de Alfred, La Martinière jeunesse, 2022
@@ -642,40 +731,79 @@
  Des éclairs dans la vallée, 2021
 Un pingouin sous les cactus, 2022
 Rien nous appartient, Pocket jeunesse-PKJ, 2022
-Mon grand-père est un gangster[6], illustrations de Pierre Dheur, Collection « Dacodac », Rouergue, 2023</t>
+Mon grand-père est un gangster, illustrations de Pierre Dheur, Collection « Dacodac », Rouergue, 2023</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Guillaume_Gu%C3%A9raud</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Guillaume_Guéraud</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Guillaume_Gu%C3%A9raud</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En bande dessinée
-Je mourrai pas gibier, adapté en bande dessinée par Alfred, Delcourt, Coll. Mirages, 2009
-Au théâtre
-Affreux, sales et gentils, adapté au théâtre par La Petite Compagnie ; interprété par Julie Duquenoÿ et Carl Hallak, dans une mise en scène de Patrick Courtois, en 2011.</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Je mourrai pas gibier, adapté en bande dessinée par Alfred, Delcourt, Coll. Mirages, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Guillaume_Guéraud</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guillaume_Gu%C3%A9raud</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Affreux, sales et gentils, adapté au théâtre par La Petite Compagnie ; interprété par Julie Duquenoÿ et Carl Hallak, dans une mise en scène de Patrick Courtois, en 2011.</t>
         </is>
       </c>
     </row>
